--- a/tests/airconditioning_heatsoucetemp/★熱源水任意入力_テストケース一覧_20200610.xlsx
+++ b/tests/airconditioning_heatsoucetemp/★熱源水任意入力_テストケース一覧_20200610.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning_heatsoucetemp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D2C36-E814-DC46-A560-FBFBF8C832FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BCF895-E2BF-D84F-A5D4-EE2DCE7ACB81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="13540" windowWidth="45700" windowHeight="20320" xr2:uid="{75599ECE-8936-413A-A87B-5509B4E5CCA2}"/>
+    <workbookView xWindow="60160" yWindow="1200" windowWidth="33600" windowHeight="20540" xr2:uid="{75599ECE-8936-413A-A87B-5509B4E5CCA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Case01</t>
     <phoneticPr fontId="1"/>
@@ -184,6 +184,16 @@
   </si>
   <si>
     <t>期待値 MATLAB版</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">バン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値 python版</t>
     <rPh sb="0" eb="3">
       <t>キタイチ</t>
     </rPh>
@@ -329,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +366,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,56 +705,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E85FAC2-B614-46EA-B841-DF99C28D509D}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="4" customWidth="1"/>
-    <col min="3" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="16.1640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="3" max="14" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15" max="22" width="12.33203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="10" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+    <row r="2" spans="1:22">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -778,23 +795,32 @@
       <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="T2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -838,22 +864,31 @@
         <v>17</v>
       </c>
       <c r="O3" s="2">
-        <v>1125.3309999999999</v>
+        <v>1099.2739761297601</v>
       </c>
       <c r="P3" s="2">
         <v>1063</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.0586</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1125.33097171248</v>
+        <v>1.03412415440241</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1125.3309999999999</v>
       </c>
       <c r="S3" s="2">
         <v>1063</v>
       </c>
+      <c r="T3" s="2">
+        <v>1.0586</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1125.33097171248</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1063</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -897,22 +932,31 @@
         <v>17</v>
       </c>
       <c r="O4" s="2">
+        <v>1034.16705318857</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1173</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.881642841592989</v>
+      </c>
+      <c r="R4" s="2">
         <v>1033.6404</v>
       </c>
-      <c r="P4" s="2">
-        <v>1173</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
+        <v>1173</v>
+      </c>
+      <c r="T4" s="2">
         <v>0.88119000000000003</v>
       </c>
-      <c r="R4" s="5">
+      <c r="U4" s="5">
         <v>1033.64041380562</v>
       </c>
-      <c r="S4" s="2">
+      <c r="V4" s="2">
         <v>1173</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -956,22 +1000,31 @@
         <v>17</v>
       </c>
       <c r="O5" s="2">
-        <v>1296.2118</v>
+        <v>1296.2118008361001</v>
       </c>
       <c r="P5" s="2">
         <v>1478</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.877</v>
-      </c>
-      <c r="R5" s="5">
-        <v>1296.2118008361099</v>
+        <v>0.87700392478762201</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1296.2118</v>
       </c>
       <c r="S5" s="2">
         <v>1478</v>
       </c>
+      <c r="T5" s="2">
+        <v>0.877</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1296.2118008361099</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1014,23 +1067,32 @@
       <c r="N6" s="2">
         <v>32</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="2">
+        <v>1083.9526126861801</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1173</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.92408577381601598</v>
+      </c>
+      <c r="R6" s="8">
         <v>1090.1496</v>
       </c>
-      <c r="P6" s="2">
-        <v>1173</v>
-      </c>
-      <c r="Q6" s="8">
+      <c r="S6" s="2">
+        <v>1173</v>
+      </c>
+      <c r="T6" s="8">
         <v>0.92937000000000003</v>
       </c>
-      <c r="R6" s="5">
+      <c r="U6" s="5">
         <v>1090.14956516146</v>
       </c>
-      <c r="S6" s="2">
+      <c r="V6" s="2">
         <v>1173</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1073,23 +1135,32 @@
       <c r="N7" s="2">
         <v>10</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="2">
+        <v>1039.51507386765</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1173</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.88620210900907903</v>
+      </c>
+      <c r="R7" s="8">
         <v>1053.2043000000001</v>
       </c>
-      <c r="P7" s="2">
-        <v>1173</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="S7" s="2">
+        <v>1173</v>
+      </c>
+      <c r="T7" s="8">
         <v>0.89786999999999995</v>
       </c>
-      <c r="R7" s="5">
+      <c r="U7" s="5">
         <v>1053.2043095218301</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>1173</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:22">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1132,23 +1203,32 @@
       <c r="N8" s="2">
         <v>14</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="2">
+        <v>1160.3053482603</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1173</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.98917762000026199</v>
+      </c>
+      <c r="R8" s="8">
         <v>1175.3530000000001</v>
       </c>
-      <c r="P8" s="2">
-        <v>1173</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="S8" s="2">
+        <v>1173</v>
+      </c>
+      <c r="T8" s="8">
         <v>1.002</v>
       </c>
-      <c r="R8" s="5">
+      <c r="U8" s="5">
         <v>1175.3529601791899</v>
       </c>
-      <c r="S8" s="2">
+      <c r="V8" s="2">
         <v>1173</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1192,22 +1272,31 @@
         <v>-20</v>
       </c>
       <c r="O9" s="2">
+        <v>1060.3708076666201</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1173</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.90398193321963205</v>
+      </c>
+      <c r="R9" s="2">
         <v>1060.3707999999999</v>
       </c>
-      <c r="P9" s="2">
-        <v>1173</v>
-      </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
+        <v>1173</v>
+      </c>
+      <c r="T9" s="2">
         <v>0.90398000000000001</v>
       </c>
-      <c r="R9" s="5">
+      <c r="U9" s="5">
         <v>1060.3708076666301</v>
       </c>
-      <c r="S9" s="2">
+      <c r="V9" s="2">
         <v>1173</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1251,22 +1340,31 @@
         <v>40</v>
       </c>
       <c r="O10" s="2">
+        <v>1334.26639482931</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1173</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.1374820075271199</v>
+      </c>
+      <c r="R10" s="2">
         <v>1213.7062000000001</v>
       </c>
-      <c r="P10" s="2">
-        <v>1173</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
+        <v>1173</v>
+      </c>
+      <c r="T10" s="2">
         <v>1.0347</v>
       </c>
-      <c r="R10" s="5">
+      <c r="U10" s="5">
         <v>1213.70623417093</v>
       </c>
-      <c r="S10" s="2">
+      <c r="V10" s="2">
         <v>1173</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1310,28 +1408,38 @@
         <v>22</v>
       </c>
       <c r="O11" s="7">
+        <v>1055.13817284164</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1173</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.89952103396559402</v>
+      </c>
+      <c r="R11" s="7">
         <v>1066.6325999999999</v>
       </c>
-      <c r="P11" s="7">
-        <v>1173</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="S11" s="7">
+        <v>1173</v>
+      </c>
+      <c r="T11" s="7">
         <v>0.90932000000000002</v>
       </c>
-      <c r="R11" s="5">
+      <c r="U11" s="5">
         <v>1066.63257080008</v>
       </c>
-      <c r="S11" s="2">
+      <c r="V11" s="2">
         <v>1173</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="O1:Q1"/>
+  <mergeCells count="6">
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
